--- a/summary.xlsx
+++ b/summary.xlsx
@@ -6,9 +6,9 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Aggregate Bugs" sheetId="1" r:id="rId4"/>
-    <sheet name="Bugs by Type" sheetId="2" r:id="rId5"/>
-    <sheet name="MS Bug Type" sheetId="3" r:id="rId6"/>
+    <sheet name="Aggregate Vulns" sheetId="1" r:id="rId4"/>
+    <sheet name="Vulns by Type" sheetId="2" r:id="rId5"/>
+    <sheet name="MS Vuln Type" sheetId="3" r:id="rId6"/>
     <sheet name="Firefox Rediscovery" sheetId="4" r:id="rId7"/>
     <sheet name="Chrome Rediscovery" sheetId="5" r:id="rId8"/>
     <sheet name="Android Rediscovery" sheetId="6" r:id="rId9"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>Whole Dataset</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Date Range</t>
   </si>
   <si>
-    <t>NVD Population</t>
-  </si>
-  <si>
     <t>Labeled Vulns</t>
   </si>
   <si>
@@ -201,16 +198,10 @@
     <t>2009—2016</t>
   </si>
   <si>
-    <t>1075 (Chrome, as Chromium only had 2 entries)</t>
-  </si>
-  <si>
     <t>Mozilla—Firefox</t>
   </si>
   <si>
     <t>2012—2016</t>
-  </si>
-  <si>
-    <t>799</t>
   </si>
   <si>
     <t>Google—Android</t>
@@ -219,13 +210,7 @@
     <t>2015-2016</t>
   </si>
   <si>
-    <t>682</t>
-  </si>
-  <si>
     <t>2014-2016</t>
-  </si>
-  <si>
-    <t>128</t>
   </si>
   <si>
     <t>Total</t>
@@ -3421,7 +3406,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3433,8 +3418,7 @@
     <col min="4" max="4" width="19.6016" style="92" customWidth="1"/>
     <col min="5" max="5" width="19.6016" style="92" customWidth="1"/>
     <col min="6" max="6" width="19.6016" style="92" customWidth="1"/>
-    <col min="7" max="7" width="19.6016" style="92" customWidth="1"/>
-    <col min="8" max="256" width="19.6016" style="92" customWidth="1"/>
+    <col min="7" max="256" width="19.6016" style="92" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
@@ -3443,10 +3427,9 @@
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
+      <c r="D1" s="94"/>
       <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="96"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="2" ht="20.35" customHeight="1">
       <c r="A2" t="s" s="85">
@@ -3457,7 +3440,6 @@
       <c r="D2" s="84"/>
       <c r="E2" s="84"/>
       <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
     </row>
     <row r="3" ht="32.35" customHeight="1">
       <c r="A3" t="s" s="85">
@@ -3478,79 +3460,67 @@
       <c r="F3" t="s" s="85">
         <v>54</v>
       </c>
-      <c r="G3" t="s" s="85">
-        <v>55</v>
-      </c>
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" t="s" s="85">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s" s="85">
         <v>56</v>
       </c>
-      <c r="B4" t="s" s="85">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s" s="85">
-        <v>58</v>
+      <c r="C4" s="78">
+        <v>6817</v>
       </c>
       <c r="D4" s="78">
-        <v>6817</v>
+        <v>3397</v>
       </c>
       <c r="E4" s="78">
-        <v>3397</v>
-      </c>
-      <c r="F4" s="78">
         <v>468</v>
       </c>
-      <c r="G4" s="89">
-        <f>F4/E4</f>
+      <c r="F4" s="89">
+        <f>E4/D4</f>
         <v>0.1377686193700324</v>
       </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" t="s" s="85">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s" s="85">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s" s="85">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="C5" s="78">
+        <v>1112</v>
       </c>
       <c r="D5" s="78">
-        <v>1112</v>
+        <v>473</v>
       </c>
       <c r="E5" s="78">
-        <v>473</v>
-      </c>
-      <c r="F5" s="78">
         <v>81</v>
       </c>
-      <c r="G5" s="89">
-        <f>F5/E5</f>
+      <c r="F5" s="89">
+        <f>E5/D5</f>
         <v>0.1712473572938689</v>
       </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" t="s" s="85">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s" s="85">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s" s="85">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C6" s="78">
+        <v>352</v>
       </c>
       <c r="D6" s="78">
         <v>352</v>
       </c>
       <c r="E6" s="78">
-        <v>352</v>
-      </c>
-      <c r="F6" s="78">
         <v>77</v>
       </c>
-      <c r="G6" s="89">
-        <f>F6/E6</f>
+      <c r="F6" s="89">
+        <f>E6/D6</f>
         <v>0.21875</v>
       </c>
     </row>
@@ -3559,22 +3529,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s" s="85">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s" s="85">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="C7" s="78">
+        <v>85</v>
       </c>
       <c r="D7" s="78">
         <v>85</v>
       </c>
       <c r="E7" s="78">
-        <v>85</v>
-      </c>
-      <c r="F7" s="78">
         <v>2</v>
       </c>
-      <c r="G7" s="89">
-        <f>F7/E7</f>
+      <c r="F7" s="89">
+        <f>E7/D7</f>
         <v>0.02352941176470588</v>
       </c>
     </row>
@@ -3585,30 +3552,28 @@
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
       <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" t="s" s="85">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s" s="85">
         <v>12</v>
       </c>
-      <c r="C9" s="85"/>
+      <c r="C9" s="78">
+        <f>SUM(C4:C7)</f>
+        <v>8366</v>
+      </c>
       <c r="D9" s="78">
         <f>SUM(D4:D7)</f>
-        <v>8366</v>
+        <v>4307</v>
       </c>
       <c r="E9" s="78">
         <f>SUM(E4:E7)</f>
-        <v>4307</v>
-      </c>
-      <c r="F9" s="78">
-        <f>SUM(F4:F7)</f>
         <v>628</v>
       </c>
-      <c r="G9" s="89">
-        <f>F9/E9</f>
+      <c r="F9" s="89">
+        <f>E9/D9</f>
         <v>0.1458091478987694</v>
       </c>
     </row>
@@ -3618,12 +3583,11 @@
       <c r="C10" s="98"/>
       <c r="D10" s="98"/>
       <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="99"/>
+      <c r="F10" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -3654,7 +3618,7 @@
   <sheetData>
     <row r="1" ht="23" customHeight="1">
       <c r="A1" t="s" s="101">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="102"/>
@@ -3791,13 +3755,13 @@
     <row r="1" ht="20.55" customHeight="1">
       <c r="A1" s="74"/>
       <c r="B1" t="s" s="64">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s" s="64">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s" s="64">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E1" s="74"/>
     </row>
@@ -3905,7 +3869,7 @@
     </row>
     <row r="10" ht="20.35" customHeight="1">
       <c r="A10" t="s" s="71">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B10" s="113">
         <v>0.171</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>Whole Dataset</t>
   </si>
@@ -180,6 +180,9 @@
     <t>Date Range</t>
   </si>
   <si>
+    <t>NVD Population</t>
+  </si>
+  <si>
     <t>Labeled Vulns</t>
   </si>
   <si>
@@ -198,19 +201,31 @@
     <t>2009—2016</t>
   </si>
   <si>
+    <t>1075 (Chrome, as Chromium only had 2 entries)</t>
+  </si>
+  <si>
     <t>Mozilla—Firefox</t>
   </si>
   <si>
     <t>2012—2016</t>
   </si>
   <si>
+    <t>799</t>
+  </si>
+  <si>
     <t>Google—Android</t>
   </si>
   <si>
     <t>2015-2016</t>
   </si>
   <si>
+    <t>682</t>
+  </si>
+  <si>
     <t>2014-2016</t>
+  </si>
+  <si>
+    <t>128</t>
   </si>
   <si>
     <t>Total</t>
@@ -3406,7 +3421,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3418,7 +3433,8 @@
     <col min="4" max="4" width="19.6016" style="92" customWidth="1"/>
     <col min="5" max="5" width="19.6016" style="92" customWidth="1"/>
     <col min="6" max="6" width="19.6016" style="92" customWidth="1"/>
-    <col min="7" max="256" width="19.6016" style="92" customWidth="1"/>
+    <col min="7" max="7" width="19.6016" style="92" customWidth="1"/>
+    <col min="8" max="256" width="19.6016" style="92" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
@@ -3427,9 +3443,10 @@
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="95"/>
-      <c r="D1" s="94"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="94"/>
-      <c r="F1" s="96"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="96"/>
     </row>
     <row r="2" ht="20.35" customHeight="1">
       <c r="A2" t="s" s="85">
@@ -3440,6 +3457,7 @@
       <c r="D2" s="84"/>
       <c r="E2" s="84"/>
       <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" ht="32.35" customHeight="1">
       <c r="A3" t="s" s="85">
@@ -3460,67 +3478,79 @@
       <c r="F3" t="s" s="85">
         <v>54</v>
       </c>
+      <c r="G3" t="s" s="85">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" t="s" s="85">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s" s="85">
-        <v>56</v>
-      </c>
-      <c r="C4" s="78">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s" s="85">
+        <v>58</v>
+      </c>
+      <c r="D4" s="78">
         <v>6817</v>
       </c>
-      <c r="D4" s="78">
+      <c r="E4" s="78">
         <v>3397</v>
       </c>
-      <c r="E4" s="78">
+      <c r="F4" s="78">
         <v>468</v>
       </c>
-      <c r="F4" s="89">
-        <f>E4/D4</f>
+      <c r="G4" s="89">
+        <f>F4/E4</f>
         <v>0.1377686193700324</v>
       </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" t="s" s="85">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s" s="85">
-        <v>58</v>
-      </c>
-      <c r="C5" s="78">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s" s="85">
+        <v>61</v>
+      </c>
+      <c r="D5" s="78">
         <v>1112</v>
       </c>
-      <c r="D5" s="78">
+      <c r="E5" s="78">
         <v>473</v>
       </c>
-      <c r="E5" s="78">
+      <c r="F5" s="78">
         <v>81</v>
       </c>
-      <c r="F5" s="89">
-        <f>E5/D5</f>
+      <c r="G5" s="89">
+        <f>F5/E5</f>
         <v>0.1712473572938689</v>
       </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" t="s" s="85">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s" s="85">
-        <v>60</v>
-      </c>
-      <c r="C6" s="78">
-        <v>352</v>
+        <v>63</v>
+      </c>
+      <c r="C6" t="s" s="85">
+        <v>64</v>
       </c>
       <c r="D6" s="78">
         <v>352</v>
       </c>
       <c r="E6" s="78">
+        <v>352</v>
+      </c>
+      <c r="F6" s="78">
         <v>77</v>
       </c>
-      <c r="F6" s="89">
-        <f>E6/D6</f>
+      <c r="G6" s="89">
+        <f>F6/E6</f>
         <v>0.21875</v>
       </c>
     </row>
@@ -3529,19 +3559,22 @@
         <v>10</v>
       </c>
       <c r="B7" t="s" s="85">
-        <v>61</v>
-      </c>
-      <c r="C7" s="78">
-        <v>85</v>
+        <v>65</v>
+      </c>
+      <c r="C7" t="s" s="85">
+        <v>66</v>
       </c>
       <c r="D7" s="78">
         <v>85</v>
       </c>
       <c r="E7" s="78">
+        <v>85</v>
+      </c>
+      <c r="F7" s="78">
         <v>2</v>
       </c>
-      <c r="F7" s="89">
-        <f>E7/D7</f>
+      <c r="G7" s="89">
+        <f>F7/E7</f>
         <v>0.02352941176470588</v>
       </c>
     </row>
@@ -3552,28 +3585,30 @@
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
       <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" t="s" s="85">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s" s="85">
         <v>12</v>
       </c>
-      <c r="C9" s="78">
-        <f>SUM(C4:C7)</f>
-        <v>8366</v>
-      </c>
+      <c r="C9" s="85"/>
       <c r="D9" s="78">
         <f>SUM(D4:D7)</f>
-        <v>4307</v>
+        <v>8366</v>
       </c>
       <c r="E9" s="78">
         <f>SUM(E4:E7)</f>
+        <v>4307</v>
+      </c>
+      <c r="F9" s="78">
+        <f>SUM(F4:F7)</f>
         <v>628</v>
       </c>
-      <c r="F9" s="89">
-        <f>E9/D9</f>
+      <c r="G9" s="89">
+        <f>F9/E9</f>
         <v>0.1458091478987694</v>
       </c>
     </row>
@@ -3583,11 +3618,12 @@
       <c r="C10" s="98"/>
       <c r="D10" s="98"/>
       <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -3618,7 +3654,7 @@
   <sheetData>
     <row r="1" ht="23" customHeight="1">
       <c r="A1" t="s" s="101">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="102"/>
@@ -3755,13 +3791,13 @@
     <row r="1" ht="20.55" customHeight="1">
       <c r="A1" s="74"/>
       <c r="B1" t="s" s="64">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s" s="64">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s" s="64">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E1" s="74"/>
     </row>
@@ -3869,7 +3905,7 @@
     </row>
     <row r="10" ht="20.35" customHeight="1">
       <c r="A10" t="s" s="71">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B10" s="113">
         <v>0.171</v>
